--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -513,12 +513,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -1612,10 +1612,15 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1679,7 +1684,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1734,7 +1739,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1793,7 +1798,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1860,7 +1865,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1927,15 +1932,10 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -622,7 +622,11 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DJ dropping Altima at Lutters after the store</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -780,7 +780,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -1007,7 +1007,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -2242,7 +2242,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2852,7 +2852,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -1857,7 +1857,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>4:30 AM MEET RYAN RD (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -1989,7 +1989,11 @@
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -2053,7 +2057,11 @@
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2104,7 +2112,11 @@
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1175 W Spring St</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2135,7 +2147,11 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2208,9 +2224,21 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -2247,9 +2275,22 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2286,8 +2327,16 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2325,8 +2374,16 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2364,8 +2421,16 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2395,8 +2460,16 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2450,8 +2523,16 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2569,7 +2650,11 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -2600,7 +2685,11 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,28 +513,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Bags 1-4</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Bag 8</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -556,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -587,12 +611,28 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -603,8 +643,16 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -613,21 +661,21 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DJ dropping Altima at Lutters after the store</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -638,8 +686,16 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -648,11 +704,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -684,43 +736,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DJ dropping Altima at Lutters after the store</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -730,44 +766,28 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
@@ -777,10 +797,14 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -788,7 +812,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PICK #878 +RX, MILWAUKEE-HOLT</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -796,7 +820,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -804,7 +828,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:15 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -812,7 +836,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>PICK #845 +RX, MILWAUKEE-LOOMIS</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -827,7 +851,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -835,7 +859,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>250 W HOLT AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -843,7 +867,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -851,7 +875,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>PICK #432 +RX, SHEBOYGAN-25TH ST</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -859,7 +883,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3701 S 27TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -874,7 +898,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -882,7 +906,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Cym6uGHHdf92</t>
+          <t>PICK #878 +RX, MILWAUKEE-HOLT</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -890,7 +914,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -898,7 +922,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1317 N 25TH STREET</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -906,7 +930,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BLy8vMxXBsA2</t>
+          <t>PICK #845 +RX, MILWAUKEE-LOOMIS</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -921,7 +945,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -929,7 +953,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SETUP ON REG #1</t>
+          <t>250 W HOLT AVE</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -937,7 +961,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -945,7 +969,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/N2BkPTrrSc32</t>
+          <t>PICK #432 +RX, SHEBOYGAN-25TH ST</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -953,7 +977,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1 &amp; 2</t>
+          <t>3701 S 27TH ST</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -968,19 +992,23 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Cym6uGHHdf92</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -988,13 +1016,17 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>1317 N 25TH STREET</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/BLy8vMxXBsA2</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1007,54 +1039,42 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>SETUP ON REG #1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/N2BkPTrrSc32</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>SET UP ON REG #1 &amp; 2</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1066,57 +1086,33 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
@@ -1129,58 +1125,54 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1192,55 +1184,55 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1253,60 +1245,60 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>259 N FOND DU LAC AVE</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1315,70 +1307,58 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, 
-Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1390,71 +1370,61 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima,
-Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1463,18 +1433,32 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, 
+Equip</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1482,31 +1466,37 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1518,46 +1508,68 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>122 ARROWHEAD DR</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima,
+Rx</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1569,71 +1581,50 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1645,62 +1636,46 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1712,57 +1687,74 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1771,57 +1763,65 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1833,55 +1833,47 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET RYAN RD (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -1900,55 +1892,47 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -1967,19 +1951,19 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1991,37 +1975,36 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>4:30 AM MEET RYAN RD (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2035,19 +2018,19 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2059,26 +2042,38 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>
@@ -2090,19 +2085,19 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2114,18 +2109,39 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1175 W Spring St</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2137,33 +2153,49 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
+          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2176,17 +2208,33 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1175 W Spring St</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2194,11 +2242,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2211,34 +2255,22 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
@@ -2247,7 +2279,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2262,35 +2294,18 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2299,7 +2314,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2314,7 +2329,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2322,22 +2337,26 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -2346,7 +2365,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2361,7 +2380,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2369,22 +2388,27 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -2393,7 +2417,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2408,7 +2432,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2416,19 +2440,19 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2440,7 +2464,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2453,21 +2477,29 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>300 PELLER RD</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>N6485 COUNTY RD F</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2479,7 +2511,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2491,46 +2523,30 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2542,7 +2558,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2554,29 +2570,24 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2586,7 +2597,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2600,22 +2611,46 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2625,7 +2660,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2637,24 +2672,29 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -2662,7 +2702,11 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>12511 ANTIOCH RD</t>
+        </is>
+      </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2672,45 +2716,37 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2720,44 +2756,32 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2767,32 +2791,44 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2804,7 +2840,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2812,7 +2848,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2825,9 +2861,21 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2839,7 +2887,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2847,7 +2895,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2861,11 +2909,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -2878,7 +2922,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2886,7 +2930,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -2900,11 +2944,7 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -2917,7 +2957,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2925,7 +2965,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -2941,7 +2981,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -2954,13 +2994,17 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>141 MAIN ST</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -2976,7 +3020,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -2988,27 +3032,18 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3024,7 +3059,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3036,22 +3071,14 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3067,7 +3094,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3079,14 +3106,27 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3100,7 +3140,11 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2712 E SUMNER ST</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3110,14 +3154,22 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3130,22 +3182,13 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3155,17 +3198,13 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3178,16 +3217,8 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3198,17 +3229,13 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3221,9 +3248,22 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3235,7 +3275,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:15 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3243,7 +3283,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3256,8 +3296,16 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -3270,7 +3318,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #332, SHEBOYGAN</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3278,7 +3326,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3305,7 +3353,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3124 S BUSINESS DR</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3313,7 +3361,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3340,7 +3388,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kS3avMsfVsS2</t>
+          <t>PIGGLY WIGGLY #332, SHEBOYGAN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3348,7 +3396,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3375,7 +3423,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>3124 S BUSINESS DR</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3383,7 +3431,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -3408,11 +3456,19 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/kS3avMsfVsS2</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>12345 W LAYTON AVE</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -3434,37 +3490,21 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
@@ -3485,37 +3525,13 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -3538,32 +3554,35 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -3586,19 +3605,35 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3621,18 +3656,31 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -3656,12 +3704,12 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -3691,19 +3739,15 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3730,19 +3774,15 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3769,12 +3809,12 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3801,6 +3841,84 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -1975,7 +1975,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>4:30 AM MEET RYAN RD (HWY 100 &amp; 94)</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2107,11 +2107,7 @@
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
@@ -2175,11 +2171,7 @@
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
@@ -2230,11 +2222,7 @@
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>1175 W Spring St</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2265,11 +2253,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2342,21 +2326,9 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -2393,22 +2365,9 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
@@ -2445,16 +2404,8 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2492,16 +2443,8 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -2539,16 +2482,8 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2578,16 +2513,8 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2641,16 +2568,8 @@
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2768,11 +2687,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -2803,11 +2718,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -1551,16 +1551,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima,
-Rx</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1612,7 +1606,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1663,10 +1657,15 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1734,15 +1733,10 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1806,7 +1800,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1861,7 +1855,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1920,7 +1914,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -1987,7 +1981,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2054,10 +2048,16 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima,
+Rx</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>

--- a/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Milwaukee Schedule.xlsx
@@ -1812,10 +1812,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1867,7 +1871,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -1926,7 +1930,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -1993,7 +1997,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2066,12 +2070,13 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2122,22 +2127,9 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2230,7 +2222,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2263,7 +2259,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2298,7 +2294,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2337,7 +2333,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2376,7 +2372,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2415,7 +2411,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2454,7 +2450,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2493,7 +2489,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2524,7 +2520,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2579,7 +2575,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2623,7 +2619,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2660,11 +2656,7 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2694,9 +2686,21 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2727,17 +2731,17 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -2772,21 +2776,9 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2855,7 +2847,11 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -2892,7 +2888,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -2931,7 +2927,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -2970,7 +2966,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3005,7 +3001,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3053,7 +3049,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3094,11 +3090,7 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3128,9 +3120,22 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3161,20 +3166,15 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3207,16 +3207,8 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
